--- a/biology/Médecine/Ganglion_supérieur_du_nerf_glosso-pharyngien/Ganglion_supérieur_du_nerf_glosso-pharyngien.xlsx
+++ b/biology/Médecine/Ganglion_supérieur_du_nerf_glosso-pharyngien/Ganglion_supérieur_du_nerf_glosso-pharyngien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ganglion_sup%C3%A9rieur_du_nerf_glosso-pharyngien</t>
+          <t>Ganglion_supérieur_du_nerf_glosso-pharyngien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ganglion supérieur du nerf glosso-pharyngien (ou ganglion d’Ehrenritter) est un ganglion sensitif inconstant du système nerveux périphérique.
-Il est situé sur la racine supérieure du nerf glosso-pharyngien à son entrée dans le foramen jugulaire. Il est plus petit et au-dessus du ganglion inférieur du nerf glossopharyngien[1].
+Il est situé sur la racine supérieure du nerf glosso-pharyngien à son entrée dans le foramen jugulaire. Il est plus petit et au-dessus du ganglion inférieur du nerf glossopharyngien.
 Les neurones du ganglion supérieur du nerf glosso-pharyngien assurent l'innervation sensorielle de l'oreille moyenne et de la surface interne de la membrane tympanique.
 Les axones de ces neurones se ramifient à partir du nerf glosso-pharyngien au niveau du ganglion inférieur du nerf glosso-pharyngien et forment le nerf tympanique avec les axones parasympathiques pré-ganglionnaires du noyau salivaire inférieur.
 Le nerf tympanique traverse ensuite le canalicule tympanique inférieur jusqu'à la cavité tympanique formant le plexus tympanique.
